--- a/Complete-spreadsheets/TASK/F7-list-TA.xlsx
+++ b/Complete-spreadsheets/TASK/F7-list-TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C34084F-1147-4D53-BF00-2CF15FE795FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B3865C-0576-4461-BAC1-EAFC13E41144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,23 +499,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>107.02808361970089</v>
-      </c>
-      <c r="C2" s="3">
-        <v>19.552218076594631</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5.0295749260992464</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.8157273137167991</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.57624894871919</v>
+      <c r="B2" s="4">
+        <v>321.33854015072188</v>
+      </c>
+      <c r="C2" s="4">
+        <v>38.804733126124383</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5.3058505813870998</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.1782613787596561</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.5145686163670509</v>
       </c>
       <c r="G2">
-        <v>137.0018528848307</v>
+        <v>372.14195385336012</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>14</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -537,23 +537,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>324.99603926140861</v>
-      </c>
-      <c r="C3" s="3">
-        <v>49.944665097685402</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6.0686023774838356</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.1585329775624129</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.753402106103179</v>
+      <c r="B3" s="4">
+        <v>28.129320616784209</v>
+      </c>
+      <c r="C3" s="4">
+        <v>63.45077228522139</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.2267475364103824</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.186879530167535</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5.7632711626403728</v>
       </c>
       <c r="G3">
-        <v>386.92124182024338</v>
+        <v>108.7569911312239</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -562,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>26</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -576,22 +576,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>321.33854015072188</v>
+        <v>28.129320616784209</v>
       </c>
       <c r="C4" s="4">
-        <v>38.804733126124383</v>
+        <v>63.45077228522139</v>
       </c>
       <c r="D4" s="4">
-        <v>5.3058505813870998</v>
+        <v>7.2267475364103824</v>
       </c>
       <c r="E4" s="4">
-        <v>3.1782613787596561</v>
+        <v>4.186879530167535</v>
       </c>
       <c r="F4" s="4">
-        <v>3.5145686163670509</v>
+        <v>5.7632711626403728</v>
       </c>
       <c r="G4">
-        <v>372.14195385336012</v>
+        <v>108.7569911312239</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -613,23 +613,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>370.95492228798707</v>
-      </c>
-      <c r="C5" s="3">
-        <v>86.622411145432494</v>
-      </c>
-      <c r="D5" s="3">
-        <v>8.5237751559044348</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.5934068036354261</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3.8654954518769902</v>
+      <c r="B5" s="4">
+        <v>28.129320616784209</v>
+      </c>
+      <c r="C5" s="4">
+        <v>63.45077228522139</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7.2267475364103824</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.186879530167535</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5.7632711626403728</v>
       </c>
       <c r="G5">
-        <v>473.56001084483648</v>
+        <v>108.7569911312239</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -638,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -651,23 +651,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>87.53847369977828</v>
-      </c>
-      <c r="C6" s="3">
-        <v>26.190516376407579</v>
-      </c>
-      <c r="D6" s="3">
-        <v>13.593938626867709</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10.06005869390428</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4.5737225060866891</v>
+      <c r="B6" s="4">
+        <v>28.129320616784209</v>
+      </c>
+      <c r="C6" s="4">
+        <v>63.45077228522139</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.2267475364103824</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.186879530167535</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5.7632711626403728</v>
       </c>
       <c r="G6">
-        <v>141.9567099030445</v>
+        <v>108.7569911312239</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>18</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
@@ -689,23 +689,23 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>118.8170415296038</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9.3619378862208684</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3.6383940198838509</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3.672091167706625</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5.1787189454905782</v>
+      <c r="B7" s="4">
+        <v>28.129320616784209</v>
+      </c>
+      <c r="C7" s="4">
+        <v>63.45077228522139</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7.2267475364103824</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.186879530167535</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5.7632711626403728</v>
       </c>
       <c r="G7">
-        <v>140.66818354890569</v>
+        <v>108.7569911312239</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
@@ -727,23 +727,23 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>373.01211424209771</v>
-      </c>
-      <c r="C8" s="3">
-        <v>127.7389754786836</v>
-      </c>
-      <c r="D8" s="3">
-        <v>23.76142273298175</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7.2521393114572952</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5.6920364140914721</v>
+      <c r="B8" s="4">
+        <v>28.129320616784209</v>
+      </c>
+      <c r="C8" s="4">
+        <v>63.45077228522139</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7.2267475364103824</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.186879530167535</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5.7632711626403728</v>
       </c>
       <c r="G8">
-        <v>537.45668817931187</v>
+        <v>108.7569911312239</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>28.129320616784209</v>
+        <v>35.093325536540149</v>
       </c>
       <c r="C12" s="4">
-        <v>63.45077228522139</v>
+        <v>49.432658237145517</v>
       </c>
       <c r="D12" s="4">
-        <v>7.2267475364103824</v>
+        <v>4.2985949432430086</v>
       </c>
       <c r="E12" s="4">
-        <v>4.186879530167535</v>
+        <v>4.8828441736035906</v>
       </c>
       <c r="F12" s="4">
-        <v>5.7632711626403728</v>
+        <v>6.1889579679624314</v>
       </c>
       <c r="G12">
-        <v>108.7569911312239</v>
+        <v>99.896380858494709</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -921,22 +921,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>28.129320616784209</v>
+        <v>575.61758328936492</v>
       </c>
       <c r="C13" s="4">
-        <v>63.45077228522139</v>
+        <v>56.024880946845293</v>
       </c>
       <c r="D13" s="4">
-        <v>7.2267475364103824</v>
+        <v>10.90351641936412</v>
       </c>
       <c r="E13" s="4">
-        <v>4.186879530167535</v>
+        <v>7.6223985564121994</v>
       </c>
       <c r="F13" s="4">
-        <v>5.7632711626403728</v>
+        <v>7.8869861704418733</v>
       </c>
       <c r="G13">
-        <v>108.7569911312239</v>
+        <v>658.05536538242848</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>28.129320616784209</v>
+        <v>1620.859124565156</v>
       </c>
       <c r="C14" s="4">
-        <v>63.45077228522139</v>
+        <v>103.88989438106221</v>
       </c>
       <c r="D14" s="4">
-        <v>7.2267475364103824</v>
+        <v>10.805463980880189</v>
       </c>
       <c r="E14" s="4">
-        <v>4.186879530167535</v>
+        <v>6.3108843900667404</v>
       </c>
       <c r="F14" s="4">
-        <v>5.7632711626403728</v>
+        <v>8.5228407875999714</v>
       </c>
       <c r="G14">
-        <v>108.7569911312239</v>
+        <v>1750.388208104765</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -997,22 +997,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>28.129320616784209</v>
+        <v>135.8344170297282</v>
       </c>
       <c r="C15" s="4">
-        <v>63.45077228522139</v>
+        <v>125.5983490412913</v>
       </c>
       <c r="D15" s="4">
-        <v>7.2267475364103824</v>
+        <v>9.7446387430531267</v>
       </c>
       <c r="E15" s="4">
-        <v>4.186879530167535</v>
+        <v>10.317186256204501</v>
       </c>
       <c r="F15" s="4">
-        <v>5.7632711626403728</v>
+        <v>8.7714056320886069</v>
       </c>
       <c r="G15">
-        <v>108.7569911312239</v>
+        <v>290.26599670236573</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>28.129320616784209</v>
+        <v>32.370111759555428</v>
       </c>
       <c r="C16" s="4">
-        <v>63.45077228522139</v>
+        <v>30.490670317001591</v>
       </c>
       <c r="D16" s="4">
-        <v>7.2267475364103824</v>
+        <v>12.24473483693435</v>
       </c>
       <c r="E16" s="4">
-        <v>4.186879530167535</v>
+        <v>7.1309421731123503</v>
       </c>
       <c r="F16" s="4">
-        <v>5.7632711626403728</v>
+        <v>10.144930691063371</v>
       </c>
       <c r="G16">
-        <v>108.7569911312239</v>
+        <v>92.38138977766711</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1073,22 +1073,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>28.129320616784209</v>
+        <v>120.7217861750909</v>
       </c>
       <c r="C17" s="4">
-        <v>63.45077228522139</v>
+        <v>53.186521770597423</v>
       </c>
       <c r="D17" s="4">
-        <v>7.2267475364103824</v>
+        <v>5.4011734530623414</v>
       </c>
       <c r="E17" s="4">
-        <v>4.186879530167535</v>
+        <v>7.8091674547797822</v>
       </c>
       <c r="F17" s="4">
-        <v>5.7632711626403728</v>
+        <v>11.035806590174371</v>
       </c>
       <c r="G17">
-        <v>108.7569911312239</v>
+        <v>198.15445544370479</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1111,22 +1111,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>35.093325536540149</v>
+        <v>47.174640503744733</v>
       </c>
       <c r="C18" s="4">
-        <v>49.432658237145517</v>
+        <v>46.858009484795787</v>
       </c>
       <c r="D18" s="4">
-        <v>4.2985949432430086</v>
+        <v>8.2430871706721476</v>
       </c>
       <c r="E18" s="4">
-        <v>4.8828441736035906</v>
+        <v>10.22831884111725</v>
       </c>
       <c r="F18" s="4">
-        <v>6.1889579679624314</v>
+        <v>19.69203446385534</v>
       </c>
       <c r="G18">
-        <v>99.896380858494709</v>
+        <v>132.19609046418529</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1148,23 +1148,23 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
-        <v>62.831225691383551</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18.107710672907881</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6.6984857170996506</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6.4805688222789861</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6.2864322525421814</v>
+      <c r="B19" s="4">
+        <v>24.455396862292421</v>
+      </c>
+      <c r="C19" s="4">
+        <v>40.173126367294593</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5.0234583304750258</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8.7373436140794425</v>
+      </c>
+      <c r="F19" s="4">
+        <v>19.95893246129382</v>
       </c>
       <c r="G19">
-        <v>100.4044231562122</v>
+        <v>98.348257635435317</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1173,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>13</v>
@@ -1186,23 +1186,23 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
-        <v>227.65925339721639</v>
-      </c>
-      <c r="C20" s="3">
-        <v>53.371987934050971</v>
-      </c>
-      <c r="D20" s="3">
-        <v>13.171104713649781</v>
-      </c>
-      <c r="E20" s="3">
-        <v>7.7404345707430746</v>
-      </c>
-      <c r="F20" s="3">
-        <v>7.2461055350877794</v>
+      <c r="B20" s="4">
+        <v>121.0363689497585</v>
+      </c>
+      <c r="C20" s="4">
+        <v>25.037564903113399</v>
+      </c>
+      <c r="D20" s="4">
+        <v>16.931251382701952</v>
+      </c>
+      <c r="E20" s="4">
+        <v>16.71750665665958</v>
+      </c>
+      <c r="F20" s="4">
+        <v>31.307491935641838</v>
       </c>
       <c r="G20">
-        <v>309.18888615074809</v>
+        <v>211.03018382787539</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>13</v>
@@ -1224,23 +1224,23 @@
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3">
-        <v>67.892702612251369</v>
-      </c>
-      <c r="C21" s="3">
-        <v>17.54457856924736</v>
-      </c>
-      <c r="D21" s="3">
-        <v>6.6032141905973702</v>
-      </c>
-      <c r="E21" s="3">
-        <v>7.7227175656559179</v>
-      </c>
-      <c r="F21" s="3">
-        <v>7.3178438341893361</v>
+      <c r="B21" s="4">
+        <v>167.64388657720849</v>
+      </c>
+      <c r="C21" s="4">
+        <v>45.685996954399457</v>
+      </c>
+      <c r="D21" s="4">
+        <v>19.21906919453593</v>
+      </c>
+      <c r="E21" s="4">
+        <v>30.504265584095499</v>
+      </c>
+      <c r="F21" s="4">
+        <v>79.747586894803533</v>
       </c>
       <c r="G21">
-        <v>107.08105677194141</v>
+        <v>342.80080520504288</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>13</v>
@@ -1262,23 +1262,23 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>52.51639230667935</v>
-      </c>
-      <c r="C22" s="3">
-        <v>12.40032017617658</v>
-      </c>
-      <c r="D22" s="3">
-        <v>9.3572787302815943</v>
-      </c>
-      <c r="E22" s="3">
-        <v>7.4591672834967913</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7.396699639305905</v>
+      <c r="B22" s="4">
+        <v>69.001670817666607</v>
+      </c>
+      <c r="C22" s="4">
+        <v>66.059832790468732</v>
+      </c>
+      <c r="D22" s="4">
+        <v>33.042092535624953</v>
+      </c>
+      <c r="E22" s="4">
+        <v>49.687944032312011</v>
+      </c>
+      <c r="F22" s="4">
+        <v>92.029372579642114</v>
       </c>
       <c r="G22">
-        <v>89.129858135940211</v>
+        <v>309.8209127557144</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1287,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>13</v>
@@ -1301,22 +1301,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>575.61758328936492</v>
+        <v>5816.9929199657836</v>
       </c>
       <c r="C23" s="4">
-        <v>56.024880946845293</v>
+        <v>937.6143179359816</v>
       </c>
       <c r="D23" s="4">
-        <v>10.90351641936412</v>
+        <v>474.83518925456559</v>
       </c>
       <c r="E23" s="4">
-        <v>7.6223985564121994</v>
+        <v>530.36650149007494</v>
       </c>
       <c r="F23" s="4">
-        <v>7.8869861704418733</v>
+        <v>315.40030212739748</v>
       </c>
       <c r="G23">
-        <v>658.05536538242848</v>
+        <v>8075.209230773803</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>216.32266214598019</v>
+        <v>107.02808361970089</v>
       </c>
       <c r="C24" s="3">
-        <v>54.908371571178719</v>
+        <v>19.552218076594631</v>
       </c>
       <c r="D24" s="3">
-        <v>9.5316363958388877</v>
+        <v>5.0295749260992464</v>
       </c>
       <c r="E24" s="3">
-        <v>7.3275466917483048</v>
+        <v>2.8157273137167991</v>
       </c>
       <c r="F24" s="3">
-        <v>8.0132167462068242</v>
+        <v>2.57624894871919</v>
       </c>
       <c r="G24">
-        <v>296.10343355095301</v>
+        <v>137.0018528848307</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -1376,23 +1376,23 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="4">
-        <v>1620.859124565156</v>
-      </c>
-      <c r="C25" s="4">
-        <v>103.88989438106221</v>
-      </c>
-      <c r="D25" s="4">
-        <v>10.805463980880189</v>
-      </c>
-      <c r="E25" s="4">
-        <v>6.3108843900667404</v>
-      </c>
-      <c r="F25" s="4">
-        <v>8.5228407875999714</v>
+      <c r="B25" s="3">
+        <v>324.99603926140861</v>
+      </c>
+      <c r="C25" s="3">
+        <v>49.944665097685402</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6.0686023774838356</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3.1585329775624129</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.753402106103179</v>
       </c>
       <c r="G25">
-        <v>1750.388208104765</v>
+        <v>386.92124182024338</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>13</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>13</v>
@@ -1415,22 +1415,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>121.49044754806771</v>
+        <v>370.95492228798707</v>
       </c>
       <c r="C26" s="3">
-        <v>17.534575813182158</v>
+        <v>86.622411145432494</v>
       </c>
       <c r="D26" s="3">
-        <v>3.9882306584565299</v>
+        <v>8.5237751559044348</v>
       </c>
       <c r="E26" s="3">
-        <v>5.9934670742396721</v>
+        <v>3.5934068036354261</v>
       </c>
       <c r="F26" s="3">
-        <v>8.6030984069864598</v>
+        <v>3.8654954518769902</v>
       </c>
       <c r="G26">
-        <v>157.6098195009325</v>
+        <v>473.56001084483648</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -1452,23 +1452,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>135.8344170297282</v>
-      </c>
-      <c r="C27" s="4">
-        <v>125.5983490412913</v>
-      </c>
-      <c r="D27" s="4">
-        <v>9.7446387430531267</v>
-      </c>
-      <c r="E27" s="4">
-        <v>10.317186256204501</v>
-      </c>
-      <c r="F27" s="4">
-        <v>8.7714056320886069</v>
+      <c r="B27" s="3">
+        <v>87.53847369977828</v>
+      </c>
+      <c r="C27" s="3">
+        <v>26.190516376407579</v>
+      </c>
+      <c r="D27" s="3">
+        <v>13.593938626867709</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10.06005869390428</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4.5737225060866891</v>
       </c>
       <c r="G27">
-        <v>290.26599670236573</v>
+        <v>141.9567099030445</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1477,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
@@ -1491,22 +1491,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="3">
-        <v>1899.1412705960261</v>
+        <v>118.8170415296038</v>
       </c>
       <c r="C28" s="3">
-        <v>304.92640617257388</v>
+        <v>9.3619378862208684</v>
       </c>
       <c r="D28" s="3">
-        <v>69.901975761827444</v>
+        <v>3.6383940198838509</v>
       </c>
       <c r="E28" s="3">
-        <v>27.153892288588271</v>
+        <v>3.672091167706625</v>
       </c>
       <c r="F28" s="3">
-        <v>10.06761782653726</v>
+        <v>5.1787189454905782</v>
       </c>
       <c r="G28">
-        <v>2311.191162645553</v>
+        <v>140.66818354890569</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -1528,23 +1528,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>32.370111759555428</v>
-      </c>
-      <c r="C29" s="4">
-        <v>30.490670317001591</v>
-      </c>
-      <c r="D29" s="4">
-        <v>12.24473483693435</v>
-      </c>
-      <c r="E29" s="4">
-        <v>7.1309421731123503</v>
-      </c>
-      <c r="F29" s="4">
-        <v>10.144930691063371</v>
+      <c r="B29" s="3">
+        <v>373.01211424209771</v>
+      </c>
+      <c r="C29" s="3">
+        <v>127.7389754786836</v>
+      </c>
+      <c r="D29" s="3">
+        <v>23.76142273298175</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7.2521393114572952</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5.6920364140914721</v>
       </c>
       <c r="G29">
-        <v>92.38138977766711</v>
+        <v>537.45668817931187</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>6</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -1566,23 +1566,23 @@
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
-        <v>120.7217861750909</v>
-      </c>
-      <c r="C30" s="4">
-        <v>53.186521770597423</v>
-      </c>
-      <c r="D30" s="4">
-        <v>5.4011734530623414</v>
-      </c>
-      <c r="E30" s="4">
-        <v>7.8091674547797822</v>
-      </c>
-      <c r="F30" s="4">
-        <v>11.035806590174371</v>
+      <c r="B30" s="3">
+        <v>62.831225691383551</v>
+      </c>
+      <c r="C30" s="3">
+        <v>18.107710672907881</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6.6984857170996506</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6.4805688222789861</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6.2864322525421814</v>
       </c>
       <c r="G30">
-        <v>198.15445544370479</v>
+        <v>100.4044231562122</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>13</v>
@@ -1605,22 +1605,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>394.15308638282897</v>
+        <v>227.65925339721639</v>
       </c>
       <c r="C31" s="3">
-        <v>69.514811941213651</v>
+        <v>53.371987934050971</v>
       </c>
       <c r="D31" s="3">
-        <v>9.4581039166154763</v>
+        <v>13.171104713649781</v>
       </c>
       <c r="E31" s="3">
-        <v>11.594875664123579</v>
+        <v>7.7404345707430746</v>
       </c>
       <c r="F31" s="3">
-        <v>13.100084713513681</v>
+        <v>7.2461055350877794</v>
       </c>
       <c r="G31">
-        <v>497.82096261829543</v>
+        <v>309.18888615074809</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1643,22 +1643,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>263.13344169372851</v>
+        <v>67.892702612251369</v>
       </c>
       <c r="C32" s="3">
-        <v>46.888744673383869</v>
+        <v>17.54457856924736</v>
       </c>
       <c r="D32" s="3">
-        <v>12.94283646870619</v>
+        <v>6.6032141905973702</v>
       </c>
       <c r="E32" s="3">
-        <v>13.24427946779349</v>
+        <v>7.7227175656559179</v>
       </c>
       <c r="F32" s="3">
-        <v>18.144551127620598</v>
+        <v>7.3178438341893361</v>
       </c>
       <c r="G32">
-        <v>354.35385343123249</v>
+        <v>107.08105677194141</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1680,23 +1680,23 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4">
-        <v>47.174640503744733</v>
-      </c>
-      <c r="C33" s="4">
-        <v>46.858009484795787</v>
-      </c>
-      <c r="D33" s="4">
-        <v>8.2430871706721476</v>
-      </c>
-      <c r="E33" s="4">
-        <v>10.22831884111725</v>
-      </c>
-      <c r="F33" s="4">
-        <v>19.69203446385534</v>
+      <c r="B33" s="3">
+        <v>52.51639230667935</v>
+      </c>
+      <c r="C33" s="3">
+        <v>12.40032017617658</v>
+      </c>
+      <c r="D33" s="3">
+        <v>9.3572787302815943</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7.4591672834967913</v>
+      </c>
+      <c r="F33" s="3">
+        <v>7.396699639305905</v>
       </c>
       <c r="G33">
-        <v>132.19609046418529</v>
+        <v>89.129858135940211</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1705,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>14</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>13</v>
@@ -1718,23 +1718,23 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4">
-        <v>24.455396862292421</v>
-      </c>
-      <c r="C34" s="4">
-        <v>40.173126367294593</v>
-      </c>
-      <c r="D34" s="4">
-        <v>5.0234583304750258</v>
-      </c>
-      <c r="E34" s="4">
-        <v>8.7373436140794425</v>
-      </c>
-      <c r="F34" s="4">
-        <v>19.95893246129382</v>
+      <c r="B34" s="3">
+        <v>216.32266214598019</v>
+      </c>
+      <c r="C34" s="3">
+        <v>54.908371571178719</v>
+      </c>
+      <c r="D34" s="3">
+        <v>9.5316363958388877</v>
+      </c>
+      <c r="E34" s="3">
+        <v>7.3275466917483048</v>
+      </c>
+      <c r="F34" s="3">
+        <v>8.0132167462068242</v>
       </c>
       <c r="G34">
-        <v>98.348257635435317</v>
+        <v>296.10343355095301</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>7</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>13</v>
@@ -1757,22 +1757,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>37.683911638105158</v>
+        <v>121.49044754806771</v>
       </c>
       <c r="C35" s="3">
-        <v>11.65976404329445</v>
+        <v>17.534575813182158</v>
       </c>
       <c r="D35" s="3">
-        <v>7.488613323811995</v>
+        <v>3.9882306584565299</v>
       </c>
       <c r="E35" s="3">
-        <v>15.17813821902609</v>
+        <v>5.9934670742396721</v>
       </c>
       <c r="F35" s="3">
-        <v>21.893597527916711</v>
+        <v>8.6030984069864598</v>
       </c>
       <c r="G35">
-        <v>93.904024752154385</v>
+        <v>157.6098195009325</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1795,22 +1795,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>34.713036273813671</v>
+        <v>1899.1412705960261</v>
       </c>
       <c r="C36" s="3">
-        <v>28.26268821798914</v>
+        <v>304.92640617257388</v>
       </c>
       <c r="D36" s="3">
-        <v>9.0345505827175163</v>
+        <v>69.901975761827444</v>
       </c>
       <c r="E36" s="3">
-        <v>12.013472686828431</v>
+        <v>27.153892288588271</v>
       </c>
       <c r="F36" s="3">
-        <v>23.927918060179099</v>
+        <v>10.06761782653726</v>
       </c>
       <c r="G36">
-        <v>107.9516658215279</v>
+        <v>2311.191162645553</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1833,22 +1833,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>1354.7893747964431</v>
+        <v>394.15308638282897</v>
       </c>
       <c r="C37" s="3">
-        <v>239.25892712093909</v>
+        <v>69.514811941213651</v>
       </c>
       <c r="D37" s="3">
-        <v>67.037737054676484</v>
+        <v>9.4581039166154763</v>
       </c>
       <c r="E37" s="3">
-        <v>40.694431208542831</v>
+        <v>11.594875664123579</v>
       </c>
       <c r="F37" s="3">
-        <v>24.681289476050811</v>
+        <v>13.100084713513681</v>
       </c>
       <c r="G37">
-        <v>1726.461759656652</v>
+        <v>497.82096261829543</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1870,23 +1870,23 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4">
-        <v>121.0363689497585</v>
-      </c>
-      <c r="C38" s="4">
-        <v>25.037564903113399</v>
-      </c>
-      <c r="D38" s="4">
-        <v>16.931251382701952</v>
-      </c>
-      <c r="E38" s="4">
-        <v>16.71750665665958</v>
-      </c>
-      <c r="F38" s="4">
-        <v>31.307491935641838</v>
+      <c r="B38" s="3">
+        <v>263.13344169372851</v>
+      </c>
+      <c r="C38" s="3">
+        <v>46.888744673383869</v>
+      </c>
+      <c r="D38" s="3">
+        <v>12.94283646870619</v>
+      </c>
+      <c r="E38" s="3">
+        <v>13.24427946779349</v>
+      </c>
+      <c r="F38" s="3">
+        <v>18.144551127620598</v>
       </c>
       <c r="G38">
-        <v>211.03018382787539</v>
+        <v>354.35385343123249</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>18</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
       </c>
       <c r="L38" t="s">
         <v>13</v>
@@ -1909,22 +1909,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>443.98956103117428</v>
+        <v>37.683911638105158</v>
       </c>
       <c r="C39" s="3">
-        <v>126.8851608409731</v>
+        <v>11.65976404329445</v>
       </c>
       <c r="D39" s="3">
-        <v>22.724708228341139</v>
+        <v>7.488613323811995</v>
       </c>
       <c r="E39" s="3">
-        <v>25.680156394918772</v>
+        <v>15.17813821902609</v>
       </c>
       <c r="F39" s="3">
-        <v>36.078913464261397</v>
+        <v>21.893597527916711</v>
       </c>
       <c r="G39">
-        <v>655.35849995966862</v>
+        <v>93.904024752154385</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1947,22 +1947,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>9837.7223229140363</v>
+        <v>34.713036273813671</v>
       </c>
       <c r="C40" s="3">
-        <v>998.35910375016533</v>
+        <v>28.26268821798914</v>
       </c>
       <c r="D40" s="3">
-        <v>69.74118333689438</v>
+        <v>9.0345505827175163</v>
       </c>
       <c r="E40" s="3">
-        <v>21.34510295752256</v>
+        <v>12.013472686828431</v>
       </c>
       <c r="F40" s="3">
-        <v>38.779515625183507</v>
+        <v>23.927918060179099</v>
       </c>
       <c r="G40">
-        <v>10965.9472285838</v>
+        <v>107.9516658215279</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1985,22 +1985,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>84.939912693670891</v>
+        <v>1354.7893747964431</v>
       </c>
       <c r="C41" s="3">
-        <v>20.889662527447591</v>
+        <v>239.25892712093909</v>
       </c>
       <c r="D41" s="3">
-        <v>32.325398494895992</v>
+        <v>67.037737054676484</v>
       </c>
       <c r="E41" s="3">
-        <v>41.773484474513261</v>
+        <v>40.694431208542831</v>
       </c>
       <c r="F41" s="3">
-        <v>65.138525596800719</v>
+        <v>24.681289476050811</v>
       </c>
       <c r="G41">
-        <v>245.0669837873285</v>
+        <v>1726.461759656652</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2022,23 +2022,23 @@
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="4">
-        <v>167.64388657720849</v>
-      </c>
-      <c r="C42" s="4">
-        <v>45.685996954399457</v>
-      </c>
-      <c r="D42" s="4">
-        <v>19.21906919453593</v>
-      </c>
-      <c r="E42" s="4">
-        <v>30.504265584095499</v>
-      </c>
-      <c r="F42" s="4">
-        <v>79.747586894803533</v>
+      <c r="B42" s="3">
+        <v>443.98956103117428</v>
+      </c>
+      <c r="C42" s="3">
+        <v>126.8851608409731</v>
+      </c>
+      <c r="D42" s="3">
+        <v>22.724708228341139</v>
+      </c>
+      <c r="E42" s="3">
+        <v>25.680156394918772</v>
+      </c>
+      <c r="F42" s="3">
+        <v>36.078913464261397</v>
       </c>
       <c r="G42">
-        <v>342.80080520504288</v>
+        <v>655.35849995966862</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>19</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>13</v>
@@ -2061,22 +2061,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>48.99644687615428</v>
+        <v>9837.7223229140363</v>
       </c>
       <c r="C43" s="3">
-        <v>15.20070878553042</v>
+        <v>998.35910375016533</v>
       </c>
       <c r="D43" s="3">
-        <v>11.190043956100681</v>
+        <v>69.74118333689438</v>
       </c>
       <c r="E43" s="3">
-        <v>43.477491737706487</v>
+        <v>21.34510295752256</v>
       </c>
       <c r="F43" s="3">
-        <v>85.870199537392935</v>
+        <v>38.779515625183507</v>
       </c>
       <c r="G43">
-        <v>204.73489089288481</v>
+        <v>10965.9472285838</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2099,22 +2099,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>794.63442881752383</v>
+        <v>84.939912693670891</v>
       </c>
       <c r="C44" s="3">
-        <v>153.90407326838439</v>
+        <v>20.889662527447591</v>
       </c>
       <c r="D44" s="3">
-        <v>54.302016855387308</v>
+        <v>32.325398494895992</v>
       </c>
       <c r="E44" s="3">
-        <v>57.101123822137517</v>
+        <v>41.773484474513261</v>
       </c>
       <c r="F44" s="3">
-        <v>88.200904091510964</v>
+        <v>65.138525596800719</v>
       </c>
       <c r="G44">
-        <v>1148.1425468549439</v>
+        <v>245.0669837873285</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2137,22 +2137,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>822.98242492756299</v>
+        <v>48.99644687615428</v>
       </c>
       <c r="C45" s="3">
-        <v>168.62249707065999</v>
+        <v>15.20070878553042</v>
       </c>
       <c r="D45" s="3">
-        <v>36.683493977823332</v>
+        <v>11.190043956100681</v>
       </c>
       <c r="E45" s="3">
-        <v>39.237177783053383</v>
+        <v>43.477491737706487</v>
       </c>
       <c r="F45" s="3">
-        <v>91.652097853406843</v>
+        <v>85.870199537392935</v>
       </c>
       <c r="G45">
-        <v>1159.177691612507</v>
+        <v>204.73489089288481</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2174,23 +2174,23 @@
       <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="4">
-        <v>69.001670817666607</v>
-      </c>
-      <c r="C46" s="4">
-        <v>66.059832790468732</v>
-      </c>
-      <c r="D46" s="4">
-        <v>33.042092535624953</v>
-      </c>
-      <c r="E46" s="4">
-        <v>49.687944032312011</v>
-      </c>
-      <c r="F46" s="4">
-        <v>92.029372579642114</v>
+      <c r="B46" s="3">
+        <v>794.63442881752383</v>
+      </c>
+      <c r="C46" s="3">
+        <v>153.90407326838439</v>
+      </c>
+      <c r="D46" s="3">
+        <v>54.302016855387308</v>
+      </c>
+      <c r="E46" s="3">
+        <v>57.101123822137517</v>
+      </c>
+      <c r="F46" s="3">
+        <v>88.200904091510964</v>
       </c>
       <c r="G46">
-        <v>309.8209127557144</v>
+        <v>1148.1425468549439</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>23</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>13</v>
@@ -2213,22 +2213,22 @@
         <v>9</v>
       </c>
       <c r="B47" s="3">
-        <v>739.71806408780833</v>
+        <v>822.98242492756299</v>
       </c>
       <c r="C47" s="3">
-        <v>256.95982217485312</v>
+        <v>168.62249707065999</v>
       </c>
       <c r="D47" s="3">
-        <v>161.06375935596691</v>
+        <v>36.683493977823332</v>
       </c>
       <c r="E47" s="3">
-        <v>249.28415041505119</v>
+        <v>39.237177783053383</v>
       </c>
       <c r="F47" s="3">
-        <v>217.97078747784991</v>
+        <v>91.652097853406843</v>
       </c>
       <c r="G47">
-        <v>1624.996583511529</v>
+        <v>1159.177691612507</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -2250,23 +2250,23 @@
       <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="4">
-        <v>5816.9929199657836</v>
-      </c>
-      <c r="C48" s="4">
-        <v>937.6143179359816</v>
-      </c>
-      <c r="D48" s="4">
-        <v>474.83518925456559</v>
-      </c>
-      <c r="E48" s="4">
-        <v>530.36650149007494</v>
-      </c>
-      <c r="F48" s="4">
-        <v>315.40030212739748</v>
+      <c r="B48" s="3">
+        <v>739.71806408780833</v>
+      </c>
+      <c r="C48" s="3">
+        <v>256.95982217485312</v>
+      </c>
+      <c r="D48" s="3">
+        <v>161.06375935596691</v>
+      </c>
+      <c r="E48" s="3">
+        <v>249.28415041505119</v>
+      </c>
+      <c r="F48" s="3">
+        <v>217.97078747784991</v>
       </c>
       <c r="G48">
-        <v>8075.209230773803</v>
+        <v>1624.996583511529</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2275,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>24</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
         <v>13</v>
@@ -2361,8 +2361,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K54">
-    <sortCondition ref="F2:F54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
